--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3157.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3157.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.280892869271905</v>
+        <v>0.8549234867095947</v>
       </c>
       <c r="B1">
-        <v>2.116527824900384</v>
+        <v>1.238696575164795</v>
       </c>
       <c r="C1">
-        <v>2.399311188367142</v>
+        <v>2.421857833862305</v>
       </c>
       <c r="D1">
-        <v>2.792488540378665</v>
+        <v>3.770876407623291</v>
       </c>
       <c r="E1">
-        <v>3.637433612083318</v>
+        <v>1.894841432571411</v>
       </c>
     </row>
   </sheetData>
